--- a/public/template_excel/template_excel_bcpk.xlsx
+++ b/public/template_excel/template_excel_bcpk.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WorkspaceProject\Web\Project_main\qltv.vlute.edu.vn\public\template_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D9E613A-9EA8-48A1-8AF9-72C91129D32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAAA9A2-008C-4134-A840-D638FAF68C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FFC5973D-61CF-4007-9A54-0FAE1AB3F9E1}"/>
   </bookViews>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD688BC4-52E4-492C-BE88-365ADFFEE15B}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A1340" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L1396" sqref="L1396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -574,12 +574,13 @@
     <col min="3" max="3" width="4.875" customWidth="1"/>
     <col min="4" max="4" width="31.25" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="16.875" customWidth="1"/>
-    <col min="7" max="7" width="11.25" customWidth="1"/>
-    <col min="8" max="8" width="4.375" customWidth="1"/>
+    <col min="6" max="6" width="23.25" customWidth="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="8" max="8" width="9.25" customWidth="1"/>
     <col min="9" max="9" width="4.625" customWidth="1"/>
     <col min="10" max="10" width="6.875" customWidth="1"/>
-    <col min="11" max="11" width="8.25" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
+    <col min="12" max="12" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
